--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/website_fall_2020_qm/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD991E-AA73-BD4C-AA26-54738E1E4EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD1D2CC-E71A-5341-B7DD-186365A8BD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -21,13 +21,22 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="137">
   <si>
     <t>Day</t>
   </si>
@@ -407,15 +416,9 @@
     <t>Content</t>
   </si>
   <si>
-    <t>IMS Chapter 1</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -435,27 +438,6 @@
   </si>
   <si>
     <t>notebooks/datastructures</t>
-  </si>
-  <si>
-    <t>IMS Chapter 2</t>
-  </si>
-  <si>
-    <t>https://forms.gle/6T7UdT7dZWboufeS7</t>
-  </si>
-  <si>
-    <t>https://eurl.io/#YnuX1CwNt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please review the syllabus to ensure you have an understanding of expectations for the class. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please take this short initial survey that will help me in delivering a good  class. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Join this Webex Teams space. </t>
-  </si>
-  <si>
-    <t>files/syllabus.pdf</t>
   </si>
   <si>
     <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some basic modeling of business senarios.</t>
@@ -1017,7 +999,7 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1055,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1067,12 +1049,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V955"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1129,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1153,10 +1135,10 @@
         <v>97</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1176,7 +1158,7 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1200,7 +1182,7 @@
         <v>121</v>
       </c>
       <c r="G5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1225,7 +1207,7 @@
         <v>121</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -6872,10 +6854,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6895,70 +6877,33 @@
         <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="8"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="17">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>136</v>
-      </c>
+    <row r="6" spans="1:4">
+      <c r="B6" s="8"/>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:4">
@@ -7051,11 +6996,8 @@
       <c r="C29" s="25"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{EB91D8CE-227F-7A43-A1D7-C63227E19CF0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7083,10 +7025,10 @@
         <v>125</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7094,10 +7036,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -7108,10 +7050,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>3</v>
@@ -7125,7 +7067,7 @@
         <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>85</v>
@@ -7139,7 +7081,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>85</v>
@@ -7433,13 +7375,13 @@
         <v>92</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -7447,10 +7389,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D2" s="28">
         <v>44084</v>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C7869A-BF12-9C47-A752-DD175FF7A29D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F9903-EA93-5947-ACA1-94AF8A307EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
   <si>
     <t>Day</t>
   </si>
@@ -293,15 +293,6 @@
     <t>Session</t>
   </si>
   <si>
-    <t>Notebook</t>
-  </si>
-  <si>
-    <t>Python Overview</t>
-  </si>
-  <si>
-    <t>Basic Data Structures</t>
-  </si>
-  <si>
     <t>textbook_logo</t>
   </si>
   <si>
@@ -335,18 +326,9 @@
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
-    <t>notebooks/python-overview</t>
-  </si>
-  <si>
-    <t>notebooks/datastructures</t>
-  </si>
-  <si>
     <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some basic modeling of business senarios.</t>
   </si>
   <si>
-    <t>Presentation</t>
-  </si>
-  <si>
     <t>https://rpi.box.com/s/ldy9h2bfaz00gek5a9cotyz21sboab95</t>
   </si>
   <si>
@@ -402,6 +384,21 @@
   </si>
   <si>
     <t>President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.</t>
+  </si>
+  <si>
+    <t>Syllabus</t>
+  </si>
+  <si>
+    <t>https://rpi.box.com/s/h23poh51rmrkk61zgniu3vsi26nmriyo</t>
+  </si>
+  <si>
+    <t>MICROrganic Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please review the syllabus for the course. </t>
+  </si>
+  <si>
+    <t>https://www.microrganictech.com/</t>
   </si>
 </sst>
 </file>
@@ -951,12 +948,12 @@
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -989,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1003,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1023,7 +1020,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>84</v>
@@ -1060,10 +1057,10 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1086,10 +1083,10 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1112,13 +1109,13 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1138,13 +1135,13 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
+        <v>105</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1164,13 +1161,13 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1190,13 +1187,13 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1216,13 +1213,13 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1242,13 +1239,13 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1268,13 +1265,13 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1309,10 +1306,10 @@
         <v>Wed</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1350,10 +1347,10 @@
         <v>Wed</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1391,10 +1388,10 @@
         <v>Wed</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -1432,10 +1429,10 @@
         <v>Wed</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -1473,10 +1470,10 @@
         <v>Wed</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -1514,10 +1511,10 @@
         <v>Wed</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -5925,7 +5922,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5942,33 +5939,42 @@
         <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>102</v>
+      <c r="B2" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="5"/>
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="5"/>
@@ -6073,8 +6079,11 @@
       <c r="C29" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{296B3606-E92B-D24A-BB2E-94B6B4E7A7B5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6084,7 +6093,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6099,70 +6108,42 @@
         <v>84</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>102</v>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="15"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="15"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="11"/>
@@ -6449,16 +6430,16 @@
         <v>84</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="68" customHeight="1">
@@ -6466,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D2" s="27">
         <v>44084</v>
@@ -10916,7 +10897,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="7" t="e">
         <f>#REF!</f>
@@ -10925,7 +10906,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="e">
         <f>#REF!</f>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0F9903-EA93-5947-ACA1-94AF8A307EF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7BF85-214C-644F-814D-BB6CDF086611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA7BF85-214C-644F-814D-BB6CDF086611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB1481-2255-F240-BA67-486F76E7C1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
   <si>
     <t>Day</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
-    <t>In this starter assignment, we are just going to try and test that everyone can go through and utilize some basic modeling of business senarios.</t>
-  </si>
-  <si>
     <t>https://rpi.box.com/s/ldy9h2bfaz00gek5a9cotyz21sboab95</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>https://www.microrganictech.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After each session, write up a 1 paragraph reflection to be incorporated into a final deliverable. It may be collecte at several points through the semester. </t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V890"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
@@ -1057,10 +1057,10 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1083,10 +1083,10 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1109,10 +1109,10 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1135,10 +1135,10 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1187,10 +1187,10 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1213,10 +1213,10 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1239,10 +1239,10 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -5953,10 +5953,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>3</v>
@@ -5967,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -6122,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -6411,8 +6411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -6447,61 +6447,156 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>97</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C2" s="32"/>
       <c r="D2" s="27">
-        <v>44084</v>
+        <v>44175</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:5" ht="51">
+      <c r="A3" s="19">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C3" s="21"/>
       <c r="D3" s="26"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="51">
+      <c r="A4" s="19">
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C4" s="22"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="51">
+      <c r="A5" s="19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C5" s="22"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="51">
+      <c r="A6" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C6" s="22"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="51">
+      <c r="A7" s="19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C7" s="22"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="51">
+      <c r="A8" s="19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C8" s="22"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="51">
+      <c r="A9" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C9" s="22"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="51">
+      <c r="A10" s="19">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C10" s="22"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="51">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C11" s="22"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="51">
+      <c r="A12" s="19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C12" s="22"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="51">
+      <c r="A13" s="19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="51">
+      <c r="A14" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="51">
+      <c r="A15" s="19">
+        <f t="shared" ref="A15:A16" si="1">A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="51">
+      <c r="A16" s="19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>120</v>
+      </c>
       <c r="C16" s="22"/>
     </row>
     <row r="17" spans="3:3">
@@ -9223,9 +9318,6 @@
       <c r="C922" s="22"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D2BAC1DF-F243-C848-B253-6284BC26D3C5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FB1481-2255-F240-BA67-486F76E7C1CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105254F5-2E39-CF4F-8C06-6033B67141A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
   <si>
     <t>Day</t>
   </si>
@@ -383,12 +383,6 @@
     <t>President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.</t>
   </si>
   <si>
-    <t>Syllabus</t>
-  </si>
-  <si>
-    <t>https://rpi.box.com/s/h23poh51rmrkk61zgniu3vsi26nmriyo</t>
-  </si>
-  <si>
     <t>MICROrganic Technologies</t>
   </si>
   <si>
@@ -399,6 +393,9 @@
   </si>
   <si>
     <t xml:space="preserve">After each session, write up a 1 paragraph reflection to be incorporated into a final deliverable. It may be collecte at several points through the semester. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recording will be posted. </t>
   </si>
 </sst>
 </file>
@@ -5953,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>96</v>
@@ -5967,10 +5964,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>119</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -6091,9 +6088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6122,14 +6119,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="16"/>
@@ -6411,7 +6403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:B16"/>
     </sheetView>
   </sheetViews>
@@ -6447,7 +6439,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -6463,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="26"/>
@@ -6475,7 +6467,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -6485,7 +6477,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="22"/>
     </row>
@@ -6495,7 +6487,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="22"/>
     </row>
@@ -6505,7 +6497,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -6515,7 +6507,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -6525,7 +6517,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -6535,7 +6527,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="22"/>
     </row>
@@ -6545,7 +6537,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="22"/>
     </row>
@@ -6555,7 +6547,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="22"/>
     </row>
@@ -6565,7 +6557,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C13" s="22"/>
     </row>
@@ -6575,7 +6567,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="22"/>
     </row>
@@ -6585,7 +6577,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="22"/>
     </row>
@@ -6595,7 +6587,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" s="22"/>
     </row>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105254F5-2E39-CF4F-8C06-6033B67141A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DED491-02BC-AB43-B404-FC2933372B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26360" yWindow="4180" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
   <si>
     <t>Day</t>
   </si>
@@ -329,57 +329,6 @@
     <t>https://rpi.box.com/s/ldy9h2bfaz00gek5a9cotyz21sboab95</t>
   </si>
   <si>
-    <t>Brent Solina '12</t>
-  </si>
-  <si>
-    <t>Founder and CTO, MICROrganic Technologies</t>
-  </si>
-  <si>
-    <t>John Haller '86</t>
-  </si>
-  <si>
-    <t>VP Technology, Sports Illustrated Play</t>
-  </si>
-  <si>
-    <t>William Fosnight '92</t>
-  </si>
-  <si>
-    <t>Co-Founder and Chief Development Officer, Alert Innovations</t>
-  </si>
-  <si>
-    <t>Dr. Patrice Milos-Spalding '82</t>
-  </si>
-  <si>
-    <t>Co-Founder, President and CEO, Medley Genomics</t>
-  </si>
-  <si>
-    <t>Dwaine Alleyne '04</t>
-  </si>
-  <si>
-    <t>Co-Founder and Partner, Enso Financial</t>
-  </si>
-  <si>
-    <t>Jeff Stewart '91</t>
-  </si>
-  <si>
-    <t>Chairman and Co-Founder, Lenddo Limited</t>
-  </si>
-  <si>
-    <t>Eben Bayer '07</t>
-  </si>
-  <si>
-    <t>Co-Founder and CEO, Ecovative Design</t>
-  </si>
-  <si>
-    <t>Tobi Saulnier '84</t>
-  </si>
-  <si>
-    <t>Founder and CEO, 1st Playable Productions</t>
-  </si>
-  <si>
-    <t>Vikram Agrawal</t>
-  </si>
-  <si>
     <t>President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.</t>
   </si>
   <si>
@@ -396,6 +345,54 @@
   </si>
   <si>
     <t xml:space="preserve">Recording will be posted. </t>
+  </si>
+  <si>
+    <t>Brent Solina '12 (Founder and CTO, MICROrganic Technologies)</t>
+  </si>
+  <si>
+    <t>John Haller '86 (VP Technology, Sports Illustrated Play)</t>
+  </si>
+  <si>
+    <t>William Fosnight '92 (Co-Founder and Chief Development Officer, Alert Innovations)</t>
+  </si>
+  <si>
+    <t>Dr. Patrice Milos-Spalding '82 (Co-Founder, President and CEO, Medley Genomics)</t>
+  </si>
+  <si>
+    <t>Dwaine Alleyne '04 (Co-Founder and Partner, Enso Financial)</t>
+  </si>
+  <si>
+    <t>Jeff Stewart '91 (Chairman and Co-Founder, Lenddo Limited)</t>
+  </si>
+  <si>
+    <t>Eben Bayer '07 (Co-Founder and CEO, Ecovative Design)</t>
+  </si>
+  <si>
+    <t>Tobi Saulnier '84 (Founder and CEO, 1st Playable Productions)</t>
+  </si>
+  <si>
+    <t>Vikram Agrawal (President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. </t>
+  </si>
+  <si>
+    <t>Where does an engineer go after holding the highest level technical position in several large companies? To a startup, of course. The experience that Bill Fosnight ’92 brought to the table when joining automation startup, Alert Innovation, couldn’t be weighed on any scale but it was worth its weight in gold. Tune in to learn why he left industry leading companies to improve consumers’ retail experience through automation and what he has to say about his 46 patents.</t>
+  </si>
+  <si>
+    <t>Doctors diagnose diseases and treat patients daily. It is scientists studying genomic heterogeneity who give doctors the ability to do such work with more accuracy. Dr. Patrice Milos ’82 has made it her mission to improve patients’ lives through personalized healthcare, the root of which lies in genomic research and data analytics.</t>
+  </si>
+  <si>
+    <t>When a scandal within the industry you are building a startup company dominates the front page news, is it a good thing? What was once a secretive industry is now vying for transparency anywhere they can to improve customer relations. How did Dwaine Alleyne ’04 handle this and how did he improve the industry? Tune in to learn more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What happens when the platform needed to make your idea a reality (the internet) hasn’t been widely adopted yet? You wait 5 years and revisit it. Very few people can say they were the first in an industry to set the standard with new technology but that is exactly what Jeff Stewart ’91 did. Join us for a discussion about being the gas pedal and steering wheel of your own destiny. </t>
+  </si>
+  <si>
+    <t>When you’re college professor always said “don’t do nonsense”, you strive to find a meaningful idea that you are passionate about working on in class. When Eben discovered the properties of mycelium and that he could grow a new sustainable material with them, he thought he might be on the right track. Little did he know how important his discovery would be to multiple industries, starting with the packaging industry.</t>
+  </si>
+  <si>
+    <t>With 3 degrees in electrical engineering from RPI, what industry do you think Tobi Saulnier '84 is innovating in today? If you said electrical engineering, you’d be wrong. That’s ok, Tobi would encourage you to guess again because she loves games so much, she created her own game development studio. How does a development studio with less than 50 employees make significant impact? Cash in your tokens for a magic clue or simply tune in to find out.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -472,6 +469,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -548,9 +550,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -621,9 +624,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6260013F-31FE-524D-88BC-A3D599C46B9A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -993,14 +997,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V890"/>
+  <dimension ref="A1:K890"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1012,10 +1016,9 @@
     <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1037,9 +1040,8 @@
       <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="28"/>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1054,16 +1056,16 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.5" customHeight="1">
+    <row r="3" spans="1:11" ht="15.5" customHeight="1">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -1080,16 +1082,14 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <f t="shared" ref="A4:B16" si="1">A3+1</f>
         <v>3</v>
@@ -1106,16 +1106,16 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1132,16 +1132,16 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1158,16 +1158,16 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:11">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1184,16 +1184,16 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>108</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:11">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1212,14 +1212,14 @@
       <c r="E8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>110</v>
+      <c r="F8" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1236,16 +1236,16 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1262,10 +1262,10 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -1274,19 +1274,8 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1305,7 +1294,7 @@
       <c r="E11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G11" s="5">
@@ -1315,19 +1304,8 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1346,7 +1324,7 @@
       <c r="E12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="5">
@@ -1356,19 +1334,8 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1387,7 +1354,7 @@
       <c r="E13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G13" s="5">
@@ -1397,19 +1364,8 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1428,7 +1384,7 @@
       <c r="E14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="5">
@@ -1438,19 +1394,8 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1469,7 +1414,7 @@
       <c r="E15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G15" s="5">
@@ -1479,19 +1424,8 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-    </row>
-    <row r="16" spans="1:22">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1510,7 +1444,7 @@
       <c r="E16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="11" t="s">
         <v>90</v>
       </c>
       <c r="G16" s="5">
@@ -1520,52 +1454,41 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="20"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="20"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="20"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="20"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="20"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="20"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="20"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="20"/>
@@ -5919,7 +5842,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5950,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>96</v>
@@ -5964,10 +5887,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -6088,9 +6011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6119,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -6403,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -6439,15 +6362,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
         <v>44175</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" s="19">
@@ -6455,7 +6376,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="26"/>
@@ -6463,11 +6384,11 @@
     </row>
     <row r="4" spans="1:5" ht="51">
       <c r="A4" s="19">
-        <f t="shared" ref="A4:A15" si="0">A3+1</f>
+        <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C4" s="22"/>
     </row>
@@ -6477,7 +6398,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C5" s="22"/>
     </row>
@@ -6487,7 +6408,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C6" s="22"/>
     </row>
@@ -6497,7 +6418,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C7" s="22"/>
     </row>
@@ -6507,7 +6428,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C8" s="22"/>
     </row>
@@ -6517,7 +6438,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C9" s="22"/>
     </row>
@@ -6527,7 +6448,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C10" s="22"/>
     </row>
@@ -6537,7 +6458,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C11" s="22"/>
     </row>
@@ -6547,7 +6468,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C12" s="22"/>
     </row>
@@ -6557,7 +6478,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C13" s="22"/>
     </row>
@@ -6567,7 +6488,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C14" s="22"/>
     </row>
@@ -6577,7 +6498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C15" s="22"/>
     </row>
@@ -6587,7 +6508,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C16" s="22"/>
     </row>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DED491-02BC-AB43-B404-FC2933372B12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F51D29-FB1F-4C48-AE28-E426D2A988B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26360" yWindow="4180" windowWidth="25600" windowHeight="14800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
   <si>
     <t>Day</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>Whether or not session/assignment info should be published (0/1).</t>
-  </si>
-  <si>
-    <t>https://rpi.box.com/s/ldy9h2bfaz00gek5a9cotyz21sboab95</t>
   </si>
   <si>
     <t>President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.</t>
@@ -999,12 +996,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K890"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:R1048576"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1056,10 +1053,10 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1082,7 +1079,7 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11">
@@ -1106,10 +1103,10 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1132,10 +1129,10 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1158,10 +1155,10 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1184,10 +1181,10 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1210,10 +1207,10 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1236,10 +1233,10 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -1262,10 +1259,10 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -5839,10 +5836,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5873,24 +5870,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -6012,8 +6004,8 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6042,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -6326,8 +6318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -6362,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -6376,10 +6368,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="26"/>
+      <c r="D3" s="27">
+        <v>44175</v>
+      </c>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" ht="51">
@@ -6388,9 +6382,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="22"/>
+      <c r="D4" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="51">
       <c r="A5" s="19">
@@ -6398,9 +6395,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="22"/>
+      <c r="D5" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="51">
       <c r="A6" s="19">
@@ -6408,9 +6408,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="22"/>
+      <c r="D6" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="51">
       <c r="A7" s="19">
@@ -6418,9 +6421,12 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="22"/>
+      <c r="D7" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="51">
       <c r="A8" s="19">
@@ -6428,9 +6434,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="22"/>
+      <c r="D8" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="51">
       <c r="A9" s="19">
@@ -6438,9 +6447,12 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="22"/>
+      <c r="D9" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="51">
       <c r="A10" s="19">
@@ -6448,9 +6460,12 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="22"/>
+      <c r="D10" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="51">
       <c r="A11" s="19">
@@ -6458,9 +6473,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="22"/>
+      <c r="D11" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="51">
       <c r="A12" s="19">
@@ -6468,9 +6486,12 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="22"/>
+      <c r="D12" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="51">
       <c r="A13" s="19">
@@ -6478,9 +6499,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="22"/>
+      <c r="D13" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="51">
       <c r="A14" s="19">
@@ -6488,9 +6512,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="22"/>
+      <c r="D14" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="51">
       <c r="A15" s="19">
@@ -6498,9 +6525,12 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="22"/>
+      <c r="D15" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="51">
       <c r="A16" s="19">
@@ -6508,9 +6538,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="22"/>
+      <c r="D16" s="27">
+        <v>44175</v>
+      </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="22"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F51D29-FB1F-4C48-AE28-E426D2A988B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C100775-0C8D-A04B-8590-26367D45E54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
   <si>
     <t>Day</t>
   </si>
@@ -329,18 +329,12 @@
     <t>President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.</t>
   </si>
   <si>
-    <t>MICROrganic Technologies</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please review the syllabus for the course. </t>
   </si>
   <si>
     <t>https://www.microrganictech.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">After each session, write up a 1 paragraph reflection to be incorporated into a final deliverable. It may be collecte at several points through the semester. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Recording will be posted. </t>
   </si>
   <si>
@@ -374,22 +368,61 @@
     <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. </t>
   </si>
   <si>
-    <t>Where does an engineer go after holding the highest level technical position in several large companies? To a startup, of course. The experience that Bill Fosnight ’92 brought to the table when joining automation startup, Alert Innovation, couldn’t be weighed on any scale but it was worth its weight in gold. Tune in to learn why he left industry leading companies to improve consumers’ retail experience through automation and what he has to say about his 46 patents.</t>
-  </si>
-  <si>
     <t>Doctors diagnose diseases and treat patients daily. It is scientists studying genomic heterogeneity who give doctors the ability to do such work with more accuracy. Dr. Patrice Milos ’82 has made it her mission to improve patients’ lives through personalized healthcare, the root of which lies in genomic research and data analytics.</t>
   </si>
   <si>
-    <t>When a scandal within the industry you are building a startup company dominates the front page news, is it a good thing? What was once a secretive industry is now vying for transparency anywhere they can to improve customer relations. How did Dwaine Alleyne ’04 handle this and how did he improve the industry? Tune in to learn more.</t>
-  </si>
-  <si>
     <t xml:space="preserve">What happens when the platform needed to make your idea a reality (the internet) hasn’t been widely adopted yet? You wait 5 years and revisit it. Very few people can say they were the first in an industry to set the standard with new technology but that is exactly what Jeff Stewart ’91 did. Join us for a discussion about being the gas pedal and steering wheel of your own destiny. </t>
   </si>
   <si>
-    <t>When you’re college professor always said “don’t do nonsense”, you strive to find a meaningful idea that you are passionate about working on in class. When Eben discovered the properties of mycelium and that he could grow a new sustainable material with them, he thought he might be on the right track. Little did he know how important his discovery would be to multiple industries, starting with the packaging industry.</t>
-  </si>
-  <si>
     <t>With 3 degrees in electrical engineering from RPI, what industry do you think Tobi Saulnier '84 is innovating in today? If you said electrical engineering, you’d be wrong. That’s ok, Tobi would encourage you to guess again because she loves games so much, she created her own game development studio. How does a development studio with less than 50 employees make significant impact? Cash in your tokens for a magic clue or simply tune in to find out.</t>
+  </si>
+  <si>
+    <t>https://rpi.box.com/s/h23poh51rmrkk61zgniu3vsi26nmriyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Join the discord community. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discord.gg/bq7z7WH </t>
+  </si>
+  <si>
+    <t>Check out Brent's company, MICROrganic Technologies.</t>
+  </si>
+  <si>
+    <r>
+      <t>What degree of impact can a Math major at RPI have on the world?  As the CTO to three acquired startups, John Haller ’86 would say, a significant impact. John excels at creating technology platforms that improve people’s lives. Tune in to hear John speak about what he did differently his 3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>rd</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="18"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> time around. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">After each session, write up a 1 paragraph reflection to be incorporated into a final deliverable. It may be collected at several points through the semester. </t>
+  </si>
+  <si>
+    <t>Where does an engineer go after holding the highest level technical position in several large companies? To a startup, of course. The experience that Bill Fosnight ’92 brought to the table when joining automation startup, Alert Innovation, couldn’t be weighed on any scale but it was worth its weight in gold. Tune in to learn why he left industry leading companies to improve consumers’ retail experience through automation.</t>
+  </si>
+  <si>
+    <t>When a scandal within the industry you are building a startup company dominates the front page news, is it a good thing? What was once a secretive industry is now vying for transparency anywhere they can to improve customer relations. How did Dwaine Alleyne ’04 handle this and how did he improve the industry? Tune in to learn more next week.</t>
+  </si>
+  <si>
+    <t>When you’re college professor always said “don’t do nonsense”, you strive to find a meaningful idea that you are passionate about working on in class. When Eben Bayer ’07discovered the properties of mycelium and that he could grow a new sustainable material with them, he thought he might be on the right track. Little did he know how important his discovery would be to multiple industries, starting with the packaging industry.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +434,7 @@
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -471,6 +504,19 @@
     <font>
       <sz val="9"/>
       <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="18"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -624,7 +670,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6260013F-31FE-524D-88BC-A3D599C46B9A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,14 +981,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D439674D-C2C9-D043-B694-3F3762249CC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
@@ -994,14 +1040,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K890"/>
+  <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1053,10 +1099,10 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1079,9 +1125,11 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="G3" s="11">
         <v>1</v>
       </c>
@@ -1103,10 +1151,10 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1129,10 +1177,10 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1155,10 +1203,10 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1181,10 +1229,10 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1207,10 +1255,10 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1233,10 +1281,10 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -1259,7 +1307,7 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>96</v>
@@ -1455,37 +1503,37 @@
     <row r="17" spans="4:6">
       <c r="D17" s="20"/>
       <c r="E17" s="22"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="20"/>
       <c r="E18" s="22"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="20"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="20"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="20"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="20"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="20"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="20"/>
@@ -5287,545 +5335,10 @@
       <c r="E783" s="22"/>
       <c r="F783" s="22"/>
     </row>
-    <row r="784" spans="4:6">
-      <c r="D784" s="20"/>
-      <c r="E784" s="22"/>
-      <c r="F784" s="22"/>
-    </row>
-    <row r="785" spans="4:6">
-      <c r="D785" s="20"/>
-      <c r="E785" s="22"/>
-      <c r="F785" s="22"/>
-    </row>
-    <row r="786" spans="4:6">
-      <c r="D786" s="20"/>
-      <c r="E786" s="22"/>
-      <c r="F786" s="22"/>
-    </row>
-    <row r="787" spans="4:6">
-      <c r="D787" s="20"/>
-      <c r="E787" s="22"/>
-      <c r="F787" s="22"/>
-    </row>
-    <row r="788" spans="4:6">
-      <c r="D788" s="20"/>
-      <c r="E788" s="22"/>
-      <c r="F788" s="22"/>
-    </row>
-    <row r="789" spans="4:6">
-      <c r="D789" s="20"/>
-      <c r="E789" s="22"/>
-      <c r="F789" s="22"/>
-    </row>
-    <row r="790" spans="4:6">
-      <c r="D790" s="20"/>
-      <c r="E790" s="22"/>
-      <c r="F790" s="22"/>
-    </row>
-    <row r="791" spans="4:6">
-      <c r="D791" s="20"/>
-      <c r="E791" s="22"/>
-      <c r="F791" s="22"/>
-    </row>
-    <row r="792" spans="4:6">
-      <c r="D792" s="20"/>
-      <c r="E792" s="22"/>
-      <c r="F792" s="22"/>
-    </row>
-    <row r="793" spans="4:6">
-      <c r="D793" s="20"/>
-      <c r="E793" s="22"/>
-      <c r="F793" s="22"/>
-    </row>
-    <row r="794" spans="4:6">
-      <c r="D794" s="20"/>
-      <c r="E794" s="22"/>
-      <c r="F794" s="22"/>
-    </row>
-    <row r="795" spans="4:6">
-      <c r="D795" s="20"/>
-      <c r="E795" s="22"/>
-      <c r="F795" s="22"/>
-    </row>
-    <row r="796" spans="4:6">
-      <c r="D796" s="20"/>
-      <c r="E796" s="22"/>
-      <c r="F796" s="22"/>
-    </row>
-    <row r="797" spans="4:6">
-      <c r="D797" s="20"/>
-      <c r="E797" s="22"/>
-      <c r="F797" s="22"/>
-    </row>
-    <row r="798" spans="4:6">
-      <c r="D798" s="20"/>
-      <c r="E798" s="22"/>
-      <c r="F798" s="22"/>
-    </row>
-    <row r="799" spans="4:6">
-      <c r="D799" s="20"/>
-      <c r="E799" s="22"/>
-      <c r="F799" s="22"/>
-    </row>
-    <row r="800" spans="4:6">
-      <c r="D800" s="20"/>
-      <c r="E800" s="22"/>
-      <c r="F800" s="22"/>
-    </row>
-    <row r="801" spans="4:6">
-      <c r="D801" s="20"/>
-      <c r="E801" s="22"/>
-      <c r="F801" s="22"/>
-    </row>
-    <row r="802" spans="4:6">
-      <c r="D802" s="20"/>
-      <c r="E802" s="22"/>
-      <c r="F802" s="22"/>
-    </row>
-    <row r="803" spans="4:6">
-      <c r="D803" s="20"/>
-      <c r="E803" s="22"/>
-      <c r="F803" s="22"/>
-    </row>
-    <row r="804" spans="4:6">
-      <c r="D804" s="20"/>
-      <c r="E804" s="22"/>
-      <c r="F804" s="22"/>
-    </row>
-    <row r="805" spans="4:6">
-      <c r="D805" s="20"/>
-      <c r="E805" s="22"/>
-      <c r="F805" s="22"/>
-    </row>
-    <row r="806" spans="4:6">
-      <c r="D806" s="20"/>
-      <c r="E806" s="22"/>
-      <c r="F806" s="22"/>
-    </row>
-    <row r="807" spans="4:6">
-      <c r="D807" s="20"/>
-      <c r="E807" s="22"/>
-      <c r="F807" s="22"/>
-    </row>
-    <row r="808" spans="4:6">
-      <c r="D808" s="20"/>
-      <c r="E808" s="22"/>
-      <c r="F808" s="22"/>
-    </row>
-    <row r="809" spans="4:6">
-      <c r="D809" s="20"/>
-      <c r="E809" s="22"/>
-      <c r="F809" s="22"/>
-    </row>
-    <row r="810" spans="4:6">
-      <c r="D810" s="20"/>
-      <c r="E810" s="22"/>
-      <c r="F810" s="22"/>
-    </row>
-    <row r="811" spans="4:6">
-      <c r="D811" s="20"/>
-      <c r="E811" s="22"/>
-      <c r="F811" s="22"/>
-    </row>
-    <row r="812" spans="4:6">
-      <c r="D812" s="20"/>
-      <c r="E812" s="22"/>
-      <c r="F812" s="22"/>
-    </row>
-    <row r="813" spans="4:6">
-      <c r="D813" s="20"/>
-      <c r="E813" s="22"/>
-      <c r="F813" s="22"/>
-    </row>
-    <row r="814" spans="4:6">
-      <c r="D814" s="20"/>
-      <c r="E814" s="22"/>
-      <c r="F814" s="22"/>
-    </row>
-    <row r="815" spans="4:6">
-      <c r="D815" s="20"/>
-      <c r="E815" s="22"/>
-      <c r="F815" s="22"/>
-    </row>
-    <row r="816" spans="4:6">
-      <c r="D816" s="20"/>
-      <c r="E816" s="22"/>
-      <c r="F816" s="22"/>
-    </row>
-    <row r="817" spans="4:6">
-      <c r="D817" s="20"/>
-      <c r="E817" s="22"/>
-      <c r="F817" s="22"/>
-    </row>
-    <row r="818" spans="4:6">
-      <c r="D818" s="20"/>
-      <c r="E818" s="22"/>
-      <c r="F818" s="22"/>
-    </row>
-    <row r="819" spans="4:6">
-      <c r="D819" s="20"/>
-      <c r="E819" s="22"/>
-      <c r="F819" s="22"/>
-    </row>
-    <row r="820" spans="4:6">
-      <c r="D820" s="20"/>
-      <c r="E820" s="22"/>
-      <c r="F820" s="22"/>
-    </row>
-    <row r="821" spans="4:6">
-      <c r="D821" s="20"/>
-      <c r="E821" s="22"/>
-      <c r="F821" s="22"/>
-    </row>
-    <row r="822" spans="4:6">
-      <c r="D822" s="20"/>
-      <c r="E822" s="22"/>
-      <c r="F822" s="22"/>
-    </row>
-    <row r="823" spans="4:6">
-      <c r="D823" s="20"/>
-      <c r="E823" s="22"/>
-      <c r="F823" s="22"/>
-    </row>
-    <row r="824" spans="4:6">
-      <c r="D824" s="20"/>
-      <c r="E824" s="22"/>
-      <c r="F824" s="22"/>
-    </row>
-    <row r="825" spans="4:6">
-      <c r="D825" s="20"/>
-      <c r="E825" s="22"/>
-      <c r="F825" s="22"/>
-    </row>
-    <row r="826" spans="4:6">
-      <c r="D826" s="20"/>
-      <c r="E826" s="22"/>
-      <c r="F826" s="22"/>
-    </row>
-    <row r="827" spans="4:6">
-      <c r="D827" s="20"/>
-      <c r="E827" s="22"/>
-      <c r="F827" s="22"/>
-    </row>
-    <row r="828" spans="4:6">
-      <c r="D828" s="20"/>
-      <c r="E828" s="22"/>
-      <c r="F828" s="22"/>
-    </row>
-    <row r="829" spans="4:6">
-      <c r="D829" s="20"/>
-      <c r="E829" s="22"/>
-      <c r="F829" s="22"/>
-    </row>
-    <row r="830" spans="4:6">
-      <c r="D830" s="20"/>
-      <c r="E830" s="22"/>
-      <c r="F830" s="22"/>
-    </row>
-    <row r="831" spans="4:6">
-      <c r="D831" s="20"/>
-      <c r="E831" s="22"/>
-      <c r="F831" s="22"/>
-    </row>
-    <row r="832" spans="4:6">
-      <c r="D832" s="20"/>
-      <c r="E832" s="22"/>
-      <c r="F832" s="22"/>
-    </row>
-    <row r="833" spans="4:6">
-      <c r="D833" s="20"/>
-      <c r="E833" s="22"/>
-      <c r="F833" s="22"/>
-    </row>
-    <row r="834" spans="4:6">
-      <c r="D834" s="20"/>
-      <c r="E834" s="22"/>
-      <c r="F834" s="22"/>
-    </row>
-    <row r="835" spans="4:6">
-      <c r="D835" s="20"/>
-      <c r="E835" s="22"/>
-      <c r="F835" s="22"/>
-    </row>
-    <row r="836" spans="4:6">
-      <c r="D836" s="20"/>
-      <c r="E836" s="22"/>
-      <c r="F836" s="22"/>
-    </row>
-    <row r="837" spans="4:6">
-      <c r="D837" s="20"/>
-      <c r="E837" s="22"/>
-      <c r="F837" s="22"/>
-    </row>
-    <row r="838" spans="4:6">
-      <c r="D838" s="20"/>
-      <c r="E838" s="22"/>
-      <c r="F838" s="22"/>
-    </row>
-    <row r="839" spans="4:6">
-      <c r="D839" s="20"/>
-      <c r="E839" s="22"/>
-      <c r="F839" s="22"/>
-    </row>
-    <row r="840" spans="4:6">
-      <c r="D840" s="20"/>
-      <c r="E840" s="22"/>
-      <c r="F840" s="22"/>
-    </row>
-    <row r="841" spans="4:6">
-      <c r="D841" s="20"/>
-      <c r="E841" s="22"/>
-      <c r="F841" s="22"/>
-    </row>
-    <row r="842" spans="4:6">
-      <c r="D842" s="20"/>
-      <c r="E842" s="22"/>
-      <c r="F842" s="22"/>
-    </row>
-    <row r="843" spans="4:6">
-      <c r="D843" s="20"/>
-      <c r="E843" s="22"/>
-      <c r="F843" s="22"/>
-    </row>
-    <row r="844" spans="4:6">
-      <c r="D844" s="20"/>
-      <c r="E844" s="22"/>
-      <c r="F844" s="22"/>
-    </row>
-    <row r="845" spans="4:6">
-      <c r="D845" s="20"/>
-      <c r="E845" s="22"/>
-      <c r="F845" s="22"/>
-    </row>
-    <row r="846" spans="4:6">
-      <c r="D846" s="20"/>
-      <c r="E846" s="22"/>
-      <c r="F846" s="22"/>
-    </row>
-    <row r="847" spans="4:6">
-      <c r="D847" s="20"/>
-      <c r="E847" s="22"/>
-      <c r="F847" s="22"/>
-    </row>
-    <row r="848" spans="4:6">
-      <c r="D848" s="20"/>
-      <c r="E848" s="22"/>
-      <c r="F848" s="22"/>
-    </row>
-    <row r="849" spans="4:6">
-      <c r="D849" s="20"/>
-      <c r="E849" s="22"/>
-      <c r="F849" s="22"/>
-    </row>
-    <row r="850" spans="4:6">
-      <c r="D850" s="20"/>
-      <c r="E850" s="22"/>
-      <c r="F850" s="22"/>
-    </row>
-    <row r="851" spans="4:6">
-      <c r="D851" s="20"/>
-      <c r="E851" s="22"/>
-      <c r="F851" s="22"/>
-    </row>
-    <row r="852" spans="4:6">
-      <c r="D852" s="20"/>
-      <c r="E852" s="22"/>
-      <c r="F852" s="22"/>
-    </row>
-    <row r="853" spans="4:6">
-      <c r="D853" s="20"/>
-      <c r="E853" s="22"/>
-      <c r="F853" s="22"/>
-    </row>
-    <row r="854" spans="4:6">
-      <c r="D854" s="20"/>
-      <c r="E854" s="22"/>
-      <c r="F854" s="22"/>
-    </row>
-    <row r="855" spans="4:6">
-      <c r="D855" s="20"/>
-      <c r="E855" s="22"/>
-      <c r="F855" s="22"/>
-    </row>
-    <row r="856" spans="4:6">
-      <c r="D856" s="20"/>
-      <c r="E856" s="22"/>
-      <c r="F856" s="22"/>
-    </row>
-    <row r="857" spans="4:6">
-      <c r="D857" s="20"/>
-      <c r="E857" s="22"/>
-      <c r="F857" s="22"/>
-    </row>
-    <row r="858" spans="4:6">
-      <c r="D858" s="20"/>
-      <c r="E858" s="22"/>
-      <c r="F858" s="22"/>
-    </row>
-    <row r="859" spans="4:6">
-      <c r="D859" s="20"/>
-      <c r="E859" s="22"/>
-      <c r="F859" s="22"/>
-    </row>
-    <row r="860" spans="4:6">
-      <c r="D860" s="20"/>
-      <c r="E860" s="22"/>
-      <c r="F860" s="22"/>
-    </row>
-    <row r="861" spans="4:6">
-      <c r="D861" s="20"/>
-      <c r="E861" s="22"/>
-      <c r="F861" s="22"/>
-    </row>
-    <row r="862" spans="4:6">
-      <c r="D862" s="20"/>
-      <c r="E862" s="22"/>
-      <c r="F862" s="22"/>
-    </row>
-    <row r="863" spans="4:6">
-      <c r="D863" s="20"/>
-      <c r="E863" s="22"/>
-      <c r="F863" s="22"/>
-    </row>
-    <row r="864" spans="4:6">
-      <c r="D864" s="20"/>
-      <c r="E864" s="22"/>
-      <c r="F864" s="22"/>
-    </row>
-    <row r="865" spans="4:6">
-      <c r="D865" s="20"/>
-      <c r="E865" s="22"/>
-      <c r="F865" s="22"/>
-    </row>
-    <row r="866" spans="4:6">
-      <c r="D866" s="20"/>
-      <c r="E866" s="22"/>
-      <c r="F866" s="22"/>
-    </row>
-    <row r="867" spans="4:6">
-      <c r="D867" s="20"/>
-      <c r="E867" s="22"/>
-      <c r="F867" s="22"/>
-    </row>
-    <row r="868" spans="4:6">
-      <c r="D868" s="20"/>
-      <c r="E868" s="22"/>
-      <c r="F868" s="22"/>
-    </row>
-    <row r="869" spans="4:6">
-      <c r="D869" s="20"/>
-      <c r="E869" s="22"/>
-      <c r="F869" s="22"/>
-    </row>
-    <row r="870" spans="4:6">
-      <c r="D870" s="20"/>
-      <c r="E870" s="22"/>
-      <c r="F870" s="22"/>
-    </row>
-    <row r="871" spans="4:6">
-      <c r="D871" s="20"/>
-      <c r="E871" s="22"/>
-      <c r="F871" s="22"/>
-    </row>
-    <row r="872" spans="4:6">
-      <c r="D872" s="20"/>
-      <c r="E872" s="22"/>
-      <c r="F872" s="22"/>
-    </row>
-    <row r="873" spans="4:6">
-      <c r="D873" s="20"/>
-      <c r="E873" s="22"/>
-      <c r="F873" s="22"/>
-    </row>
-    <row r="874" spans="4:6">
-      <c r="D874" s="20"/>
-      <c r="E874" s="22"/>
-      <c r="F874" s="22"/>
-    </row>
-    <row r="875" spans="4:6">
-      <c r="D875" s="20"/>
-      <c r="E875" s="22"/>
-      <c r="F875" s="22"/>
-    </row>
-    <row r="876" spans="4:6">
-      <c r="D876" s="20"/>
-      <c r="E876" s="22"/>
-      <c r="F876" s="22"/>
-    </row>
-    <row r="877" spans="4:6">
-      <c r="D877" s="20"/>
-      <c r="E877" s="22"/>
-      <c r="F877" s="22"/>
-    </row>
-    <row r="878" spans="4:6">
-      <c r="D878" s="20"/>
-      <c r="E878" s="22"/>
-      <c r="F878" s="22"/>
-    </row>
-    <row r="879" spans="4:6">
-      <c r="D879" s="20"/>
-      <c r="E879" s="22"/>
-      <c r="F879" s="22"/>
-    </row>
-    <row r="880" spans="4:6">
-      <c r="D880" s="20"/>
-      <c r="E880" s="22"/>
-      <c r="F880" s="22"/>
-    </row>
-    <row r="881" spans="4:6">
-      <c r="D881" s="20"/>
-      <c r="E881" s="22"/>
-      <c r="F881" s="22"/>
-    </row>
-    <row r="882" spans="4:6">
-      <c r="D882" s="20"/>
-      <c r="E882" s="22"/>
-      <c r="F882" s="22"/>
-    </row>
-    <row r="883" spans="4:6">
-      <c r="D883" s="20"/>
-      <c r="E883" s="22"/>
-      <c r="F883" s="22"/>
-    </row>
-    <row r="884" spans="4:6">
-      <c r="D884" s="20"/>
-      <c r="E884" s="22"/>
-      <c r="F884" s="22"/>
-    </row>
-    <row r="885" spans="4:6">
-      <c r="D885" s="20"/>
-      <c r="E885" s="22"/>
-      <c r="F885" s="22"/>
-    </row>
-    <row r="886" spans="4:6">
-      <c r="D886" s="20"/>
-      <c r="E886" s="22"/>
-      <c r="F886" s="22"/>
-    </row>
-    <row r="887" spans="4:6">
-      <c r="D887" s="20"/>
-      <c r="E887" s="22"/>
-      <c r="F887" s="22"/>
-    </row>
-    <row r="888" spans="4:6">
-      <c r="D888" s="20"/>
-      <c r="E888" s="22"/>
-      <c r="F888" s="22"/>
-    </row>
-    <row r="889" spans="4:6">
-      <c r="D889" s="20"/>
-      <c r="E889" s="22"/>
-      <c r="F889" s="22"/>
-    </row>
-    <row r="890" spans="4:6">
-      <c r="D890" s="20"/>
-      <c r="E890" s="22"/>
-      <c r="F890" s="22"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{05D1C1BB-0A92-2A4F-B33D-774626814BE3}"/>
-    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{05BD6401-7D66-A64E-9D24-F6E46568B802}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5833,13 +5346,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5870,28 +5383,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="16"/>
+        <v>97</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="8"/>
@@ -5992,15 +5519,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{296B3606-E92B-D24A-BB2E-94B6B4E7A7B5}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6034,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="16"/>
     </row>
@@ -6315,11 +5843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929EBF5B-C504-F94A-BB00-B01380980449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D16"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -6354,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -6368,7 +5896,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="27">
@@ -6382,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="27">
@@ -6395,7 +5923,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="27">
@@ -6408,7 +5936,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="27">
@@ -6421,7 +5949,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="27">
@@ -6434,7 +5962,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="27">
@@ -6447,7 +5975,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="27">
@@ -6460,7 +5988,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="27">
@@ -6473,7 +6001,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="27">
@@ -6486,7 +6014,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="27">
@@ -6499,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="27">
@@ -6512,7 +6040,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="27">
@@ -6525,7 +6053,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="27">
@@ -6538,7 +6066,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="27">
@@ -9269,7 +8797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10795,71 +10323,71 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0E00-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0E00-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0E00-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0E00-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0E00-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0E00-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0E00-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0E00-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0E00-000020000000}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0E00-000021000000}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0E00-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0E00-000023000000}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0E00-000024000000}"/>
-    <hyperlink ref="B43" r:id="rId38" xr:uid="{00000000-0004-0000-0E00-000025000000}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0E00-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0E00-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0E00-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0E00-000029000000}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0E00-00002A000000}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0E00-00002B000000}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0E00-00002C000000}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0E00-00002D000000}"/>
-    <hyperlink ref="B54" r:id="rId47" xr:uid="{00000000-0004-0000-0E00-00002E000000}"/>
-    <hyperlink ref="B55" r:id="rId48" xr:uid="{00000000-0004-0000-0E00-00002F000000}"/>
-    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0E00-000030000000}"/>
-    <hyperlink ref="B57" r:id="rId50" xr:uid="{00000000-0004-0000-0E00-000031000000}"/>
-    <hyperlink ref="B58" r:id="rId51" xr:uid="{00000000-0004-0000-0E00-000032000000}"/>
-    <hyperlink ref="B60" r:id="rId52" xr:uid="{00000000-0004-0000-0E00-000033000000}"/>
-    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0E00-000034000000}"/>
-    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0E00-000035000000}"/>
-    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0E00-000036000000}"/>
-    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0E00-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0E00-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0E00-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0E00-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0E00-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0E00-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0E00-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0E00-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0E00-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0E00-000040000000}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="B43" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="B54" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="B55" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="B58" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="B60" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10867,7 +10395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C100775-0C8D-A04B-8590-26367D45E54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4C73A-080E-E245-8732-95376557F362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -21,17 +21,7 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -363,9 +353,6 @@
   </si>
   <si>
     <t>Vikram Agrawal (President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. </t>
   </si>
   <si>
     <t>Doctors diagnose diseases and treat patients daily. It is scientists studying genomic heterogeneity who give doctors the ability to do such work with more accuracy. Dr. Patrice Milos ’82 has made it her mission to improve patients’ lives through personalized healthcare, the root of which lies in genomic research and data analytics.</t>
@@ -423,6 +410,14 @@
   </si>
   <si>
     <t>When you’re college professor always said “don’t do nonsense”, you strive to find a meaningful idea that you are passionate about working on in class. When Eben Bayer ’07discovered the properties of mycelium and that he could grow a new sustainable material with them, he thought he might be on the right track. Little did he know how important his discovery would be to multiple industries, starting with the packaging industry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. 
+&lt;br&gt; For students taking the class asynchronous please take the quiz associated with this video.
+&lt;!-- copy and paste. Modify height and width if desired. --&gt;
+&lt;iframe class="embeddedObject shadow resizable" name="embedded_content" scrolling="no" frameborder="0" type="text/html"
+        style="overflow:hidden;" src="https://www.screencast.com/users/reardk/folders/Camtasia%20Studio/media/5dcc6727-7d57-4c58-a5d2-14967aa0d4eb/embed" height="1080" width="1920" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -598,7 +593,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,6 +661,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1043,11 +1041,11 @@
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:H123"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1084,7 +1082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="289">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1101,8 +1099,8 @@
       <c r="E2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>109</v>
+      <c r="F2" s="35" t="s">
+        <v>121</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1128,7 +1126,7 @@
         <v>101</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1154,7 +1152,7 @@
         <v>102</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1180,7 +1178,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1206,7 +1204,7 @@
         <v>104</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1232,7 +1230,7 @@
         <v>105</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1258,7 +1256,7 @@
         <v>106</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1284,7 +1282,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -5386,7 +5384,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -5397,10 +5395,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -5411,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>98</v>
@@ -5882,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -5896,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="27">
@@ -5910,7 +5908,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="27">
@@ -5923,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="27">
@@ -5936,7 +5934,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="27">
@@ -5949,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="27">
@@ -5962,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="27">
@@ -5975,7 +5973,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="27">
@@ -5988,7 +5986,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="27">
@@ -6001,7 +5999,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="27">
@@ -6014,7 +6012,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="27">
@@ -6027,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="27">
@@ -6040,7 +6038,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="27">
@@ -6053,7 +6051,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="27">
@@ -6066,7 +6064,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="27">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4C73A-080E-E245-8732-95376557F362}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47251BEC-65C6-974C-A9C0-176E145F12D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>Day</t>
   </si>
@@ -323,9 +323,6 @@
   </si>
   <si>
     <t>https://www.microrganictech.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recording will be posted. </t>
   </si>
   <si>
     <t>Brent Solina '12 (Founder and CTO, MICROrganic Technologies)</t>
@@ -412,12 +409,13 @@
     <t>When you’re college professor always said “don’t do nonsense”, you strive to find a meaningful idea that you are passionate about working on in class. When Eben Bayer ’07discovered the properties of mycelium and that he could grow a new sustainable material with them, he thought he might be on the right track. Little did he know how important his discovery would be to multiple industries, starting with the packaging industry.</t>
   </si>
   <si>
-    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. 
-&lt;br&gt; For students taking the class asynchronous please take the quiz associated with this video.
-&lt;!-- copy and paste. Modify height and width if desired. --&gt;
-&lt;iframe class="embeddedObject shadow resizable" name="embedded_content" scrolling="no" frameborder="0" type="text/html"
-        style="overflow:hidden;" src="https://www.screencast.com/users/reardk/folders/Camtasia%20Studio/media/5dcc6727-7d57-4c58-a5d2-14967aa0d4eb/embed" height="1080" width="1920" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;
-</t>
+    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. </t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/psRwAPELCBhd</t>
+  </si>
+  <si>
+    <t>Recording of Talk (with quiz for async students).</t>
   </si>
 </sst>
 </file>
@@ -657,13 +655,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1040,12 +1038,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1082,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="289">
+    <row r="2" spans="1:11" ht="85">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1097,10 +1095,10 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>121</v>
+        <v>99</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>120</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1123,10 +1121,10 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1149,10 +1147,10 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1175,10 +1173,10 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1201,10 +1199,10 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1227,10 +1225,10 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1253,10 +1251,10 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1279,10 +1277,10 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -1305,7 +1303,7 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>96</v>
@@ -5384,7 +5382,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -5395,10 +5393,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -5409,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>98</v>
@@ -5529,16 +5527,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
@@ -5560,9 +5558,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="16"/>
+        <v>122</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="16"/>
@@ -5835,8 +5838,11 @@
       <c r="C69" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{11502076-8CD7-CD4B-B84B-DFA025386B0D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5880,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -5894,7 +5900,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="27">
@@ -5908,7 +5914,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="27">
@@ -5921,7 +5927,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="27">
@@ -5934,7 +5940,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="27">
@@ -5947,7 +5953,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="27">
@@ -5960,7 +5966,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="27">
@@ -5973,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="27">
@@ -5986,7 +5992,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="27">
@@ -5999,7 +6005,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="27">
@@ -6012,7 +6018,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="27">
@@ -6025,7 +6031,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="27">
@@ -6038,7 +6044,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="27">
@@ -6051,7 +6057,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="27">
@@ -6064,7 +6070,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="27">
@@ -8841,10 +8847,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="33">
+      <c r="A5" s="34">
         <v>43709</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -8887,10 +8893,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="33">
+      <c r="A11" s="34">
         <v>43739</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -8941,10 +8947,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="33">
+      <c r="A18" s="34">
         <v>43770</v>
       </c>
-      <c r="B18" s="34"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -9011,10 +9017,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <v>43800</v>
       </c>
-      <c r="B27" s="34"/>
+      <c r="B27" s="35"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -9097,10 +9103,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="34">
         <v>43831</v>
       </c>
-      <c r="B38" s="34"/>
+      <c r="B38" s="35"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -9151,10 +9157,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="34">
         <v>43862</v>
       </c>
-      <c r="B45" s="34"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -9181,10 +9187,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="34">
         <v>43891</v>
       </c>
-      <c r="B49" s="34"/>
+      <c r="B49" s="35"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -9259,10 +9265,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="34">
         <v>43922</v>
       </c>
-      <c r="B59" s="34"/>
+      <c r="B59" s="35"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -9305,10 +9311,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="34">
         <v>43952</v>
       </c>
-      <c r="B65" s="34"/>
+      <c r="B65" s="35"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reardk\Box Sync 3\Box Sync\Documents\RPI-Severino Center\impactful_innovators\impactful_innovators_website\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47251BEC-65C6-974C-A9C0-176E145F12D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -21,12 +20,22 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="146">
   <si>
     <t>Day</t>
   </si>
@@ -316,24 +325,21 @@
     <t>Whether or not session/assignment info should be published (0/1).</t>
   </si>
   <si>
-    <t>President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Please review the syllabus for the course. </t>
   </si>
   <si>
     <t>https://www.microrganictech.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">Recording will be posted. </t>
+  </si>
+  <si>
     <t>Brent Solina '12 (Founder and CTO, MICROrganic Technologies)</t>
   </si>
   <si>
     <t>John Haller '86 (VP Technology, Sports Illustrated Play)</t>
   </si>
   <si>
-    <t>William Fosnight '92 (Co-Founder and Chief Development Officer, Alert Innovations)</t>
-  </si>
-  <si>
     <t>Dr. Patrice Milos-Spalding '82 (Co-Founder, President and CEO, Medley Genomics)</t>
   </si>
   <si>
@@ -349,7 +355,7 @@
     <t>Tobi Saulnier '84 (Founder and CEO, 1st Playable Productions)</t>
   </si>
   <si>
-    <t>Vikram Agrawal (President &amp; CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.)</t>
+    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. </t>
   </si>
   <si>
     <t>Doctors diagnose diseases and treat patients daily. It is scientists studying genomic heterogeneity who give doctors the ability to do such work with more accuracy. Dr. Patrice Milos ’82 has made it her mission to improve patients’ lives through personalized healthcare, the root of which lies in genomic research and data analytics.</t>
@@ -409,25 +415,102 @@
     <t>When you’re college professor always said “don’t do nonsense”, you strive to find a meaningful idea that you are passionate about working on in class. When Eben Bayer ’07discovered the properties of mycelium and that he could grow a new sustainable material with them, he thought he might be on the right track. Little did he know how important his discovery would be to multiple industries, starting with the packaging industry.</t>
   </si>
   <si>
-    <t xml:space="preserve">As a biochem/biophysics major at RPI, Brent Solina '12 nurtured his curiosity with experimentation. It wasn’t until he became enamored with microbial fuel cells that he almost became homeless. Tune in to hear how he is making an impact on a dirty job that most would not sign up for after graduating with the skills and knowledge he acquired while at Rensselaer. </t>
-  </si>
-  <si>
-    <t>https://www.screencast.com/t/psRwAPELCBhd</t>
-  </si>
-  <si>
-    <t>Recording of Talk (with quiz for async students).</t>
+    <t>No class Thanksgiving Break.</t>
+  </si>
+  <si>
+    <t>Join the Discord community and post a short introduction in the Students-&gt;#fall2020-class channel</t>
+  </si>
+  <si>
+    <t>William Fosnight '92 (Co-Founder and CTO, Alert Innovation)</t>
+  </si>
+  <si>
+    <t>Vikram Agrawal '02 (President and CEO, Levrx Technology; Co-CEO, Agrawal Holdings Inc.)</t>
+  </si>
+  <si>
+    <t>Christopher Wysopal (Co-Founder and CTO, Veracode)</t>
+  </si>
+  <si>
+    <t>Guha Bala (Co-Founder and President, Velan Studios  and Velan Ventures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was once printed on paper is now largely digital. Businesses and consumers alike have come to expect accessibility to all sorts of data without delay. The field of electronic health records is no exception. Tune in to hear how this team of brothers innovated within a highly fragmented industry while being trusted with extremely sensitive data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How would you like to add these to your resume? 
+  “World’s leading password cracker” 
+  “Testified to the senate that I can take down the internet in 30 mins” 
+  “Named one of the 100 Most Influential People in IT”   
+This RPI alumnus can do just that.
+</t>
+  </si>
+  <si>
+    <t>Check out Bill's company, Alert Innovation</t>
+  </si>
+  <si>
+    <t>https://www.alertinnovation.com/</t>
+  </si>
+  <si>
+    <t>http://medleygenomics.com/</t>
+  </si>
+  <si>
+    <t>Check out Patrice's company, Medley Genomics</t>
+  </si>
+  <si>
+    <t>Check out Jeff's company, Lenddo Ltd</t>
+  </si>
+  <si>
+    <t>https://lenddo.com/</t>
+  </si>
+  <si>
+    <t>Check out Eben's company, Ecovative Design</t>
+  </si>
+  <si>
+    <t>https://ecovativedesign.com/</t>
+  </si>
+  <si>
+    <t>Check out Tobi's company, 1st Playable Productions</t>
+  </si>
+  <si>
+    <t>http://www.1stplayable.com/</t>
+  </si>
+  <si>
+    <t>https://www.levrx.com/</t>
+  </si>
+  <si>
+    <t>Check out Vikram's company, Levrx</t>
+  </si>
+  <si>
+    <t>Check out Chris' company, Veracode</t>
+  </si>
+  <si>
+    <t>https://www.veracode.com/</t>
+  </si>
+  <si>
+    <t>https://www.velanstudios.com/</t>
+  </si>
+  <si>
+    <t>Are you crazy enough to take on $1M in personal debt when you have zero assets? This innovator found it very motivating and went on to produce well known gaming titles such as Tony Hawk, Spiderman 2 and Skylanders. Now he is launching the soon-to-be-released MarioKart Live Home Circuit game.</t>
+  </si>
+  <si>
+    <t>https://vicariousvisions.com</t>
+  </si>
+  <si>
+    <t>Check out Guha's 2nd company, Velan Studios</t>
+  </si>
+  <si>
+    <t>Check out Guha's 1st company, Velan Studios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -512,6 +595,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292929"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -591,7 +680,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -655,9 +744,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -666,7 +759,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -977,14 +1070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
@@ -1021,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19">
+    <row r="11" spans="1:3" ht="18.75">
       <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
@@ -1035,29 +1128,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1080,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="85">
+    <row r="2" spans="1:11">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1097,14 +1190,14 @@
       <c r="E2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>120</v>
+      <c r="F2" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" customHeight="1">
+    <row r="3" spans="1:11" ht="15.6" customHeight="1">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -1124,7 +1217,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1147,10 +1240,10 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1173,10 +1266,10 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1199,10 +1292,10 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1225,10 +1318,10 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1251,10 +1344,10 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1277,10 +1370,10 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
@@ -1303,10 +1396,10 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>96</v>
+        <v>122</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>125</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -1316,7 +1409,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="94.5">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1333,10 +1426,10 @@
         <v>Wed</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>90</v>
+        <v>123</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1363,10 +1456,10 @@
         <v>Wed</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>90</v>
+        <v>124</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1423,10 +1516,10 @@
         <v>Wed</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>90</v>
+        <v>119</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -5333,8 +5426,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function"/>
+    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5342,25 +5435,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="87.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="46" style="11" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="11"/>
+    <col min="4" max="4" width="32.125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5379,10 +5472,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -5393,10 +5486,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -5407,54 +5500,154 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="8"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="14">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="14">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="15"/>
@@ -5515,31 +5708,41 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5558,14 +5761,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="16"/>
@@ -5838,33 +6036,30 @@
       <c r="C69" s="25"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{11502076-8CD7-CD4B-B84B-DFA025386B0D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E922"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="11"/>
+    <col min="1" max="1" width="8.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="11.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -5881,12 +6076,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1">
+    <row r="2" spans="1:5" ht="68.099999999999994" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -5894,13 +6089,13 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="47.25">
       <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="27">
@@ -5908,169 +6103,169 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="51">
+    <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="19">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51">
+    <row r="5" spans="1:5" ht="47.25">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51">
+    <row r="6" spans="1:5" ht="47.25">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51">
+    <row r="7" spans="1:5" ht="47.25">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51">
+    <row r="8" spans="1:5" ht="47.25">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51">
+    <row r="9" spans="1:5" ht="47.25">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51">
+    <row r="10" spans="1:5" ht="47.25">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51">
+    <row r="11" spans="1:5" ht="47.25">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51">
+    <row r="12" spans="1:5" ht="47.25">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51">
+    <row r="13" spans="1:5" ht="47.25">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51">
+    <row r="14" spans="1:5" ht="47.25">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51">
+    <row r="15" spans="1:5" ht="47.25">
       <c r="A15" s="19">
         <f t="shared" ref="A15:A16" si="1">A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51">
+    <row r="16" spans="1:5" ht="47.25">
       <c r="A16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="27">
@@ -8801,14 +8996,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="26" width="10.5" customWidth="1"/>
@@ -8847,10 +9042,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="34">
+      <c r="A5" s="36">
         <v>43709</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -8893,10 +9088,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="36">
         <v>43739</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -8947,10 +9142,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="36">
         <v>43770</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="37"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -9017,10 +9212,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="34">
+      <c r="A27" s="36">
         <v>43800</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="37"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -9103,10 +9298,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="34">
+      <c r="A38" s="36">
         <v>43831</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="37"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -9157,10 +9352,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="34">
+      <c r="A45" s="36">
         <v>43862</v>
       </c>
-      <c r="B45" s="35"/>
+      <c r="B45" s="37"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -9187,10 +9382,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="34">
+      <c r="A49" s="36">
         <v>43891</v>
       </c>
-      <c r="B49" s="35"/>
+      <c r="B49" s="37"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -9265,10 +9460,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="34">
+      <c r="A59" s="36">
         <v>43922</v>
       </c>
-      <c r="B59" s="35"/>
+      <c r="B59" s="37"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -9311,10 +9506,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="34">
+      <c r="A65" s="36">
         <v>43952</v>
       </c>
-      <c r="B65" s="35"/>
+      <c r="B65" s="37"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">
@@ -10327,71 +10522,71 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
-    <hyperlink ref="B43" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
-    <hyperlink ref="B54" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
-    <hyperlink ref="B55" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
-    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
-    <hyperlink ref="B57" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
-    <hyperlink ref="B58" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
-    <hyperlink ref="B60" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
-    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
-    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
-    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
-    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B53" r:id="rId46"/>
+    <hyperlink ref="B54" r:id="rId47"/>
+    <hyperlink ref="B55" r:id="rId48"/>
+    <hyperlink ref="B56" r:id="rId49"/>
+    <hyperlink ref="B57" r:id="rId50"/>
+    <hyperlink ref="B58" r:id="rId51"/>
+    <hyperlink ref="B60" r:id="rId52"/>
+    <hyperlink ref="B61" r:id="rId53"/>
+    <hyperlink ref="B62" r:id="rId54"/>
+    <hyperlink ref="B63" r:id="rId55"/>
+    <hyperlink ref="B64" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10399,16 +10594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reardk\Box Sync 3\Box Sync\Documents\RPI-Severino Center\impactful_innovators\impactful_innovators_website\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAD77C-61DA-B342-B20C-0E2A1D466FF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="51195" windowHeight="26745" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -20,22 +21,12 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="149">
   <si>
     <t>Day</t>
   </si>
@@ -329,9 +320,6 @@
   </si>
   <si>
     <t>https://www.microrganictech.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recording will be posted. </t>
   </si>
   <si>
     <t>Brent Solina '12 (Founder and CTO, MICROrganic Technologies)</t>
@@ -500,11 +488,23 @@
   <si>
     <t>Check out Guha's 1st company, Velan Studios</t>
   </si>
+  <si>
+    <t>John's talk.</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/yMlFUj5wN</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/users/reardk/folders/Camtasia%20Studio/media/5dcc6727-7d57-4c58-a5d2-14967aa0d4eb</t>
+  </si>
+  <si>
+    <t>Brent's talk.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
@@ -759,7 +759,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,14 +1070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
@@ -1114,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75">
+    <row r="11" spans="1:3" ht="19">
       <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +1128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
@@ -1139,18 +1139,18 @@
       <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1188,16 +1188,16 @@
         <v>Wed</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" customHeight="1">
+    <row r="3" spans="1:11" ht="15.5" customHeight="1">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -1214,10 +1214,10 @@
         <v>Wed</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="11">
         <v>1</v>
@@ -1240,10 +1240,10 @@
         <v>Wed</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -1266,10 +1266,10 @@
         <v>Wed</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="11">
         <v>1</v>
@@ -1292,10 +1292,10 @@
         <v>Wed</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="11">
         <v>1</v>
@@ -1318,10 +1318,10 @@
         <v>Wed</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1344,10 +1344,10 @@
         <v>Wed</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1370,16 +1370,16 @@
         <v>Wed</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="19">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1396,10 +1396,10 @@
         <v>Wed</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G10" s="11">
         <v>1</v>
@@ -1409,7 +1409,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="94.5">
+    <row r="11" spans="1:11" ht="102">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1426,10 +1426,10 @@
         <v>Wed</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -1456,10 +1456,10 @@
         <v>Wed</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>Wed</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -5426,8 +5426,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function"/>
-    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5435,25 +5435,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="46" style="11" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="11"/>
+    <col min="4" max="4" width="32.1640625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>96</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -5486,10 +5486,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -5500,7 +5500,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>97</v>
@@ -5509,141 +5509,141 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="14">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="14">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="14">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="14">
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="14">
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>140</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="17">
       <c r="A14" s="14">
         <v>11</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>3</v>
@@ -5708,18 +5708,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
@@ -5727,22 +5727,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5761,13 +5761,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="16"/>
+        <v>148</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="C3" s="16"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="15"/>
@@ -6036,30 +6051,33 @@
       <c r="C69" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0E4776B3-D17B-4348-A3DC-77BAD6BD446A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E922"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.125" style="11"/>
+    <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="19">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -6076,12 +6094,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68.099999999999994" customHeight="1">
+    <row r="2" spans="1:5" ht="68" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="27">
@@ -6089,13 +6107,13 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="27">
@@ -6103,169 +6121,169 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="47.25">
+    <row r="4" spans="1:5" ht="51">
       <c r="A4" s="19">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25">
+    <row r="5" spans="1:5" ht="51">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25">
+    <row r="6" spans="1:5" ht="51">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="47.25">
+    <row r="7" spans="1:5" ht="51">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25">
+    <row r="8" spans="1:5" ht="51">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="47.25">
+    <row r="9" spans="1:5" ht="51">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25">
+    <row r="10" spans="1:5" ht="51">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="47.25">
+    <row r="11" spans="1:5" ht="51">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25">
+    <row r="12" spans="1:5" ht="51">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25">
+    <row r="13" spans="1:5" ht="51">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25">
+    <row r="14" spans="1:5" ht="51">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="47.25">
+    <row r="15" spans="1:5" ht="51">
       <c r="A15" s="19">
         <f t="shared" ref="A15:A16" si="1">A14+1</f>
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="27">
         <v>44175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="47.25">
+    <row r="16" spans="1:5" ht="51">
       <c r="A16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="27">
@@ -8996,14 +9014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="26" width="10.5" customWidth="1"/>
@@ -10522,71 +10540,71 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B26" r:id="rId23"/>
-    <hyperlink ref="B28" r:id="rId24"/>
-    <hyperlink ref="B29" r:id="rId25"/>
-    <hyperlink ref="B30" r:id="rId26"/>
-    <hyperlink ref="B31" r:id="rId27"/>
-    <hyperlink ref="B32" r:id="rId28"/>
-    <hyperlink ref="B33" r:id="rId29"/>
-    <hyperlink ref="B34" r:id="rId30"/>
-    <hyperlink ref="B35" r:id="rId31"/>
-    <hyperlink ref="B36" r:id="rId32"/>
-    <hyperlink ref="B37" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B42" r:id="rId37"/>
-    <hyperlink ref="B43" r:id="rId38"/>
-    <hyperlink ref="B44" r:id="rId39"/>
-    <hyperlink ref="B46" r:id="rId40"/>
-    <hyperlink ref="B47" r:id="rId41"/>
-    <hyperlink ref="B48" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B54" r:id="rId47"/>
-    <hyperlink ref="B55" r:id="rId48"/>
-    <hyperlink ref="B56" r:id="rId49"/>
-    <hyperlink ref="B57" r:id="rId50"/>
-    <hyperlink ref="B58" r:id="rId51"/>
-    <hyperlink ref="B60" r:id="rId52"/>
-    <hyperlink ref="B61" r:id="rId53"/>
-    <hyperlink ref="B62" r:id="rId54"/>
-    <hyperlink ref="B63" r:id="rId55"/>
-    <hyperlink ref="B64" r:id="rId56"/>
-    <hyperlink ref="B66" r:id="rId57"/>
-    <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="B68" r:id="rId59"/>
-    <hyperlink ref="B69" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
-    <hyperlink ref="B73" r:id="rId64"/>
-    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="B43" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="B54" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="B55" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="B58" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="B60" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10594,16 +10612,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBAD77C-61DA-B342-B20C-0E2A1D466FF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36980340-ADDF-1644-A39B-D0D5F2243703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36980340-ADDF-1644-A39B-D0D5F2243703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F44F4-20EB-F448-8A60-0D1A5EB3D381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -1131,12 +1131,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1432,7 +1432,7 @@
         <v>125</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1462,7 +1462,7 @@
         <v>141</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -5730,7 +5730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1F44F4-20EB-F448-8A60-0D1A5EB3D381}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211F5962-AE9B-5B48-B788-E3CE85227E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211F5962-AE9B-5B48-B788-E3CE85227E6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D99BD7-4AC4-DE4C-BD06-C5D4E0DD7039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
   <si>
     <t>Day</t>
   </si>
@@ -489,16 +489,13 @@
     <t>Check out Guha's 1st company, Velan Studios</t>
   </si>
   <si>
-    <t>John's talk.</t>
-  </si>
-  <si>
     <t>https://www.screencast.com/t/yMlFUj5wN</t>
   </si>
   <si>
     <t>https://www.screencast.com/users/reardk/folders/Camtasia%20Studio/media/5dcc6727-7d57-4c58-a5d2-14967aa0d4eb</t>
   </si>
   <si>
-    <t>Brent's talk.</t>
+    <t>https://www.screencast.com/t/FTUg66qq8</t>
   </si>
 </sst>
 </file>
@@ -1131,12 +1128,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1239,7 +1236,7 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -5730,9 +5727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5760,11 +5757,11 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>148</v>
+      <c r="B2" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>3</v>
@@ -5774,20 +5771,29 @@
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="15"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="15"/>
@@ -6053,9 +6059,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{0E4776B3-D17B-4348-A3DC-77BAD6BD446A}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{014B3B04-1F30-A845-83C9-CECD903EAF3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D99BD7-4AC4-DE4C-BD06-C5D4E0DD7039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECF83A-EACB-6E48-9A7A-458286B6F148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
   <si>
     <t>Day</t>
   </si>
@@ -496,6 +496,21 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/FTUg66qq8</t>
+  </si>
+  <si>
+    <t>This alumnus went from an Information Technology and Web Sciences master student to serial entrepreneur in under ten years. He has helped build and sell three ventures and his current company has a top 20 social app in 17 countries.</t>
+  </si>
+  <si>
+    <t>Selcuk Atli '09, Co-Founder and CEO, Bunch</t>
+  </si>
+  <si>
+    <t>Check out Selcuk's company, Bunch</t>
+  </si>
+  <si>
+    <t>https://bunch.live/</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/yffj37mW</t>
   </si>
 </sst>
 </file>
@@ -677,7 +692,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,6 +767,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1133,7 +1151,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E4"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1483,10 +1501,10 @@
         <v>Wed</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="G13" s="5">
         <v>0</v>
@@ -5438,7 +5456,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5646,9 +5664,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
+    <row r="15" spans="1:4" ht="17">
+      <c r="A15" s="14">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" s="15"/>
@@ -5717,9 +5745,10 @@
     <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
     <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
     <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -5729,7 +5758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5795,10 +5824,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="15"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="5"/>
+    <row r="5" spans="1:4" ht="34">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="11"/>
@@ -6058,11 +6096,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{0E4776B3-D17B-4348-A3DC-77BAD6BD446A}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{014B3B04-1F30-A845-83C9-CECD903EAF3A}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{A400D2D9-6FC5-4845-9AF5-BF6BF3948B6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/Box/RPI-Severino Center/impactful_innovators/impactful_innovators_website/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ECF83A-EACB-6E48-9A7A-458286B6F148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E90953-0B6B-2D47-829C-76BBFB3551D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="154">
   <si>
     <t>Day</t>
   </si>
@@ -511,6 +511,9 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/yffj37mW</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/7bSBMcLim</t>
   </si>
 </sst>
 </file>
@@ -763,13 +766,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1151,7 +1154,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5758,7 +5761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5831,7 +5834,7 @@
       <c r="B5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="36" t="s">
         <v>152</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -5839,8 +5842,18 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="11"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" s="11"/>
@@ -6099,9 +6112,10 @@
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{A400D2D9-6FC5-4845-9AF5-BF6BF3948B6C}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{77492EE7-9994-3E46-AFB9-259B70537950}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9106,10 +9120,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="36">
+      <c r="A5" s="37">
         <v>43709</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -9152,10 +9166,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="36">
+      <c r="A11" s="37">
         <v>43739</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -9206,10 +9220,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="36">
+      <c r="A18" s="37">
         <v>43770</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="38"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -9276,10 +9290,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="36">
+      <c r="A27" s="37">
         <v>43800</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="38"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -9362,10 +9376,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="36">
+      <c r="A38" s="37">
         <v>43831</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -9416,10 +9430,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="36">
+      <c r="A45" s="37">
         <v>43862</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="38"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -9446,10 +9460,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="36">
+      <c r="A49" s="37">
         <v>43891</v>
       </c>
-      <c r="B49" s="37"/>
+      <c r="B49" s="38"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -9524,10 +9538,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="36">
+      <c r="A59" s="37">
         <v>43922</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="38"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -9570,10 +9584,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="36">
+      <c r="A65" s="37">
         <v>43952</v>
       </c>
-      <c r="B65" s="37"/>
+      <c r="B65" s="38"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reardk\Box\Documents\RPI-Severino Center\impactful_innovators\impactful_innovators_website\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E90953-0B6B-2D47-829C-76BBFB3551D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14805"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -21,12 +20,12 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>Day</t>
   </si>
@@ -515,11 +514,23 @@
   <si>
     <t>https://www.screencast.com/t/7bSBMcLim</t>
   </si>
+  <si>
+    <t>Check out Tim's company, VARA Safety</t>
+  </si>
+  <si>
+    <t>https://varasafety.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timmy Oh </t>
+  </si>
+  <si>
+    <t>As a freshman, this alumnus had a desire to decrease the number of deaths caused by accidental gun discharge. Hear how he iterated his design to meet the market need while learning how to run a startup before he could legally order a beer.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
@@ -777,7 +788,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1088,14 +1099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
@@ -1132,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19">
+    <row r="11" spans="1:3" ht="18.75">
       <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
@@ -1146,29 +1157,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.125" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" customHeight="1">
+    <row r="3" spans="1:11" ht="15.6" customHeight="1">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -1397,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="19">
+    <row r="10" spans="1:11">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1427,7 +1438,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="102">
+    <row r="11" spans="1:11" ht="94.5">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1564,10 +1575,10 @@
         <v>Wed</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>90</v>
+        <v>156</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="G15" s="5">
         <v>0</v>
@@ -5444,8 +5455,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function"/>
+    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5453,7 +5464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5462,16 +5473,16 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="87.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="46" style="11" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="11"/>
+    <col min="4" max="4" width="32.125" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5527,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -5541,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -5555,7 +5566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -5569,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
+    <row r="8" spans="1:4">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -5583,7 +5594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -5597,7 +5608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -5611,7 +5622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
+    <row r="11" spans="1:4">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -5625,7 +5636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17">
+    <row r="12" spans="1:4">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -5639,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
+    <row r="13" spans="1:4">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -5653,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17">
+    <row r="14" spans="1:4">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -5667,7 +5678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17">
+    <row r="15" spans="1:4">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -5682,8 +5693,18 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="14">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="15"/>
@@ -5736,19 +5757,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -5756,22 +5777,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5827,7 +5848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34">
+    <row r="5" spans="1:4" ht="31.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5848,7 +5869,7 @@
       <c r="B6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="24" t="s">
         <v>153</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5856,7 +5877,12 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="11"/>
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:4">
@@ -6109,35 +6135,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{A400D2D9-6FC5-4845-9AF5-BF6BF3948B6C}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{77492EE7-9994-3E46-AFB9-259B70537950}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E922"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="11"/>
+    <col min="1" max="1" width="8.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="11.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="19">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="18.75">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -6154,7 +6179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68" customHeight="1">
+    <row r="2" spans="1:5" ht="68.099999999999994" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6167,7 +6192,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="51">
+    <row r="3" spans="1:5" ht="47.25">
       <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
@@ -6181,7 +6206,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="51">
+    <row r="4" spans="1:5" ht="47.25">
       <c r="A4" s="19">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
@@ -6194,7 +6219,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="51">
+    <row r="5" spans="1:5" ht="47.25">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6207,7 +6232,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51">
+    <row r="6" spans="1:5" ht="47.25">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6220,7 +6245,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="51">
+    <row r="7" spans="1:5" ht="47.25">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6233,7 +6258,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51">
+    <row r="8" spans="1:5" ht="47.25">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6246,7 +6271,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51">
+    <row r="9" spans="1:5" ht="47.25">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6259,7 +6284,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="51">
+    <row r="10" spans="1:5" ht="47.25">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6272,7 +6297,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51">
+    <row r="11" spans="1:5" ht="47.25">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6285,7 +6310,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51">
+    <row r="12" spans="1:5" ht="47.25">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6298,7 +6323,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="51">
+    <row r="13" spans="1:5" ht="47.25">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6311,7 +6336,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="51">
+    <row r="14" spans="1:5" ht="47.25">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6324,7 +6349,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51">
+    <row r="15" spans="1:5" ht="47.25">
       <c r="A15" s="19">
         <f t="shared" ref="A15:A16" si="1">A14+1</f>
         <v>14</v>
@@ -6337,7 +6362,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="51">
+    <row r="16" spans="1:5" ht="47.25">
       <c r="A16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -9074,14 +9099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="26" width="10.5" customWidth="1"/>
@@ -10600,71 +10625,71 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
-    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
-    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
-    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
-    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
-    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
-    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
-    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
-    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
-    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
-    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
-    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
-    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
-    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
-    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
-    <hyperlink ref="B43" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
-    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
-    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
-    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
-    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
-    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
-    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
-    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
-    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
-    <hyperlink ref="B54" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
-    <hyperlink ref="B55" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
-    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
-    <hyperlink ref="B57" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
-    <hyperlink ref="B58" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
-    <hyperlink ref="B60" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
-    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
-    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
-    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
-    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
-    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
-    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
-    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
-    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
-    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
-    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
-    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
-    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="B22" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B29" r:id="rId25"/>
+    <hyperlink ref="B30" r:id="rId26"/>
+    <hyperlink ref="B31" r:id="rId27"/>
+    <hyperlink ref="B32" r:id="rId28"/>
+    <hyperlink ref="B33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="B35" r:id="rId31"/>
+    <hyperlink ref="B36" r:id="rId32"/>
+    <hyperlink ref="B37" r:id="rId33"/>
+    <hyperlink ref="B39" r:id="rId34"/>
+    <hyperlink ref="B40" r:id="rId35"/>
+    <hyperlink ref="B41" r:id="rId36"/>
+    <hyperlink ref="B42" r:id="rId37"/>
+    <hyperlink ref="B43" r:id="rId38"/>
+    <hyperlink ref="B44" r:id="rId39"/>
+    <hyperlink ref="B46" r:id="rId40"/>
+    <hyperlink ref="B47" r:id="rId41"/>
+    <hyperlink ref="B48" r:id="rId42"/>
+    <hyperlink ref="B50" r:id="rId43"/>
+    <hyperlink ref="B51" r:id="rId44"/>
+    <hyperlink ref="B52" r:id="rId45"/>
+    <hyperlink ref="B53" r:id="rId46"/>
+    <hyperlink ref="B54" r:id="rId47"/>
+    <hyperlink ref="B55" r:id="rId48"/>
+    <hyperlink ref="B56" r:id="rId49"/>
+    <hyperlink ref="B57" r:id="rId50"/>
+    <hyperlink ref="B58" r:id="rId51"/>
+    <hyperlink ref="B60" r:id="rId52"/>
+    <hyperlink ref="B61" r:id="rId53"/>
+    <hyperlink ref="B62" r:id="rId54"/>
+    <hyperlink ref="B63" r:id="rId55"/>
+    <hyperlink ref="B64" r:id="rId56"/>
+    <hyperlink ref="B66" r:id="rId57"/>
+    <hyperlink ref="B67" r:id="rId58"/>
+    <hyperlink ref="B68" r:id="rId59"/>
+    <hyperlink ref="B69" r:id="rId60"/>
+    <hyperlink ref="B70" r:id="rId61"/>
+    <hyperlink ref="B71" r:id="rId62"/>
+    <hyperlink ref="B72" r:id="rId63"/>
+    <hyperlink ref="B73" r:id="rId64"/>
+    <hyperlink ref="B74" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10672,16 +10697,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reardk\Box\Documents\RPI-Severino Center\impactful_innovators\impactful_innovators_website\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E265DC-A694-5844-A2C4-DE25D50D67C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14805"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="159">
   <si>
     <t>Day</t>
   </si>
@@ -526,11 +527,14 @@
   <si>
     <t>As a freshman, this alumnus had a desire to decrease the number of deaths caused by accidental gun discharge. Hear how he iterated his design to meet the market need while learning how to run a startup before he could legally order a beer.</t>
   </si>
+  <si>
+    <t>https://www.screencast.com/t/q0B6a5lcnyNG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
@@ -788,7 +792,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1099,14 +1103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
@@ -1143,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75">
+    <row r="11" spans="1:3" ht="19">
       <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
@@ -1157,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
@@ -1168,18 +1172,18 @@
       <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" style="17" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="19">
       <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" customHeight="1">
+    <row r="3" spans="1:11" ht="15.5" customHeight="1">
       <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
@@ -1408,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="19">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1438,7 +1442,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="94.5">
+    <row r="11" spans="1:11" ht="102">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -5455,8 +5459,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function"/>
-    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D3:D16" r:id="rId2" display="https://exceljet.net/excel-functions/excel-text-function" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -5464,7 +5468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5473,16 +5477,16 @@
       <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="87.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="46" style="11" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="11"/>
+    <col min="4" max="4" width="32.1640625" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="14">
         <v>2</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -5566,7 +5570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="17">
       <c r="A7" s="14">
         <v>4</v>
       </c>
@@ -5580,7 +5584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="17">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -5622,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="17">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -5636,7 +5640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="17">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="17">
       <c r="A14" s="14">
         <v>11</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="17">
       <c r="A15" s="14">
         <v>12</v>
       </c>
@@ -5692,7 +5696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="17">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -5757,19 +5761,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
@@ -5777,22 +5781,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="30.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:4" s="12" customFormat="1" ht="19">
       <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5">
+    <row r="5" spans="1:4" ht="34">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -5883,7 +5887,12 @@
       <c r="B7" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="11"/>
@@ -6135,34 +6144,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{9E9C7B9D-6E49-FD45-BF5B-D25302170C9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E922"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="53.625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.125" style="11"/>
+    <col min="1" max="1" width="8.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="18.75">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="19">
       <c r="A1" s="5" t="s">
         <v>84</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68.099999999999994" customHeight="1">
+    <row r="2" spans="1:5" ht="68" customHeight="1">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6192,7 +6202,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="47.25">
+    <row r="3" spans="1:5" ht="51">
       <c r="A3" s="19">
         <f>A2+1</f>
         <v>2</v>
@@ -6206,7 +6216,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="47.25">
+    <row r="4" spans="1:5" ht="51">
       <c r="A4" s="19">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>3</v>
@@ -6219,7 +6229,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="47.25">
+    <row r="5" spans="1:5" ht="51">
       <c r="A5" s="19">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6232,7 +6242,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="47.25">
+    <row r="6" spans="1:5" ht="51">
       <c r="A6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6245,7 +6255,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="47.25">
+    <row r="7" spans="1:5" ht="51">
       <c r="A7" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6258,7 +6268,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="47.25">
+    <row r="8" spans="1:5" ht="51">
       <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6271,7 +6281,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="47.25">
+    <row r="9" spans="1:5" ht="51">
       <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6284,7 +6294,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="47.25">
+    <row r="10" spans="1:5" ht="51">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6297,7 +6307,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="47.25">
+    <row r="11" spans="1:5" ht="51">
       <c r="A11" s="19">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6310,7 +6320,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25">
+    <row r="12" spans="1:5" ht="51">
       <c r="A12" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6323,7 +6333,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="47.25">
+    <row r="13" spans="1:5" ht="51">
       <c r="A13" s="19">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6336,7 +6346,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="47.25">
+    <row r="14" spans="1:5" ht="51">
       <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6349,7 +6359,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="47.25">
+    <row r="15" spans="1:5" ht="51">
       <c r="A15" s="19">
         <f t="shared" ref="A15:A16" si="1">A14+1</f>
         <v>14</v>
@@ -6362,7 +6372,7 @@
         <v>44175</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="47.25">
+    <row r="16" spans="1:5" ht="51">
       <c r="A16" s="19">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -9099,14 +9109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="26" width="10.5" customWidth="1"/>
@@ -10625,71 +10635,71 @@
     <mergeCell ref="A38:B38"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
-    <hyperlink ref="B22" r:id="rId19"/>
-    <hyperlink ref="B23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="B25" r:id="rId22"/>
-    <hyperlink ref="B26" r:id="rId23"/>
-    <hyperlink ref="B28" r:id="rId24"/>
-    <hyperlink ref="B29" r:id="rId25"/>
-    <hyperlink ref="B30" r:id="rId26"/>
-    <hyperlink ref="B31" r:id="rId27"/>
-    <hyperlink ref="B32" r:id="rId28"/>
-    <hyperlink ref="B33" r:id="rId29"/>
-    <hyperlink ref="B34" r:id="rId30"/>
-    <hyperlink ref="B35" r:id="rId31"/>
-    <hyperlink ref="B36" r:id="rId32"/>
-    <hyperlink ref="B37" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B42" r:id="rId37"/>
-    <hyperlink ref="B43" r:id="rId38"/>
-    <hyperlink ref="B44" r:id="rId39"/>
-    <hyperlink ref="B46" r:id="rId40"/>
-    <hyperlink ref="B47" r:id="rId41"/>
-    <hyperlink ref="B48" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B54" r:id="rId47"/>
-    <hyperlink ref="B55" r:id="rId48"/>
-    <hyperlink ref="B56" r:id="rId49"/>
-    <hyperlink ref="B57" r:id="rId50"/>
-    <hyperlink ref="B58" r:id="rId51"/>
-    <hyperlink ref="B60" r:id="rId52"/>
-    <hyperlink ref="B61" r:id="rId53"/>
-    <hyperlink ref="B62" r:id="rId54"/>
-    <hyperlink ref="B63" r:id="rId55"/>
-    <hyperlink ref="B64" r:id="rId56"/>
-    <hyperlink ref="B66" r:id="rId57"/>
-    <hyperlink ref="B67" r:id="rId58"/>
-    <hyperlink ref="B68" r:id="rId59"/>
-    <hyperlink ref="B69" r:id="rId60"/>
-    <hyperlink ref="B70" r:id="rId61"/>
-    <hyperlink ref="B71" r:id="rId62"/>
-    <hyperlink ref="B72" r:id="rId63"/>
-    <hyperlink ref="B73" r:id="rId64"/>
-    <hyperlink ref="B74" r:id="rId65"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="B31" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="B42" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="B43" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="B44" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="B46" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="B47" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="B48" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="B54" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="B55" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="B56" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="B57" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="B58" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="B60" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="B61" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="B62" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="B63" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="B64" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="B66" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="B67" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="B68" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="B69" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="B70" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="B72" r:id="rId63" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="B73" r:id="rId64" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="B74" r:id="rId65" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -10697,16 +10707,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E265DC-A694-5844-A2C4-DE25D50D67C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81A235-8AC4-7842-A41D-DBD9175FF0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
   <si>
     <t>Day</t>
   </si>
@@ -529,6 +529,12 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/q0B6a5lcnyNG</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/qIRq9ZLB4d35</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/x8JJQOrFbFGg</t>
   </si>
 </sst>
 </file>
@@ -1165,11 +1171,11 @@
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5786,7 +5792,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5895,12 +5901,32 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="B9" s="11"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="11"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA81A235-8AC4-7842-A41D-DBD9175FF0D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8D61E-7D85-5A49-8B56-1B82E6758183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -1170,12 +1170,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E8:E9"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -1531,7 +1531,7 @@
         <v>148</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1561,7 +1561,7 @@
         <v>118</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -1591,7 +1591,7 @@
         <v>157</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1621,7 +1621,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -5790,7 +5790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
     </sheetView>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8D61E-7D85-5A49-8B56-1B82E6758183}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104B1E9-3D44-3944-8788-7323E015A673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
   <si>
     <t>Day</t>
   </si>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/x8JJQOrFbFGg</t>
+  </si>
+  <si>
+    <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/7d59afe52f2645e4ade2c585cc9f48d6</t>
   </si>
 </sst>
 </file>
@@ -1170,12 +1173,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K783"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5790,9 +5793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D9"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5929,8 +5932,18 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="B10" s="11"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" s="11"/>

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104B1E9-3D44-3944-8788-7323E015A673}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B3E6B-BF9D-5C41-BA30-BF9F8517BF69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
   <si>
     <t>Day</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>https://rensselaer.webex.com/webappng/sites/rensselaer/recording/play/7d59afe52f2645e4ade2c585cc9f48d6</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/FaZ3Dicj</t>
   </si>
 </sst>
 </file>
@@ -1174,11 +1177,11 @@
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5795,7 +5798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5931,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="68">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -5946,8 +5949,18 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="B11" s="11"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="11"/>
@@ -6187,9 +6200,10 @@
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{9E9C7B9D-6E49-FD45-BF5B-D25302170C9D}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{2DC98117-8157-B140-92EC-6D1C44C281C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B3E6B-BF9D-5C41-BA30-BF9F8517BF69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99E485-C168-9849-A3AC-2DFAA107C15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help Setup" sheetId="27" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <sheet name="Academic calendar" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="_config_yml" sheetId="8" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
   <si>
     <t>Day</t>
   </si>
@@ -541,6 +552,9 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/FaZ3Dicj</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/RnnUKEBFrr5I</t>
   </si>
 </sst>
 </file>
@@ -722,7 +736,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,6 +814,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1181,7 +1198,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5798,7 +5815,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5962,9 +5979,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
+    <row r="12" spans="1:4" ht="34">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="11"/>
@@ -6201,9 +6228,10 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{9E9C7B9D-6E49-FD45-BF5B-D25302170C9D}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{2DC98117-8157-B140-92EC-6D1C44C281C6}"/>
+    <hyperlink ref="C12" r:id="rId6" xr:uid="{2824036B-8CC1-FD40-94D1-D95C6A5E5083}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99E485-C168-9849-A3AC-2DFAA107C15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD535A-0528-6144-B303-E109F03DE634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
   <si>
     <t>Day</t>
   </si>
@@ -555,6 +555,9 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/RnnUKEBFrr5I</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/W7shyjOOnX</t>
   </si>
 </sst>
 </file>
@@ -810,13 +813,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1198,7 +1201,7 @@
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5815,7 +5818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -5986,7 +5989,7 @@
       <c r="B12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="37" t="s">
         <v>163</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -5994,8 +5997,18 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="11"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" s="11"/>
@@ -6229,9 +6242,10 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{9E9C7B9D-6E49-FD45-BF5B-D25302170C9D}"/>
     <hyperlink ref="C11" r:id="rId5" xr:uid="{2DC98117-8157-B140-92EC-6D1C44C281C6}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{2824036B-8CC1-FD40-94D1-D95C6A5E5083}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{E85224FD-5E02-B84D-9024-2422322E3C6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -9236,10 +9250,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="37">
+      <c r="A5" s="38">
         <v>43709</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2">
@@ -9282,10 +9296,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="37">
+      <c r="A11" s="38">
         <v>43739</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="2">
@@ -9336,10 +9350,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="37">
+      <c r="A18" s="38">
         <v>43770</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -9406,10 +9420,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="37">
+      <c r="A27" s="38">
         <v>43800</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="39"/>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -9492,10 +9506,10 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="37">
+      <c r="A38" s="38">
         <v>43831</v>
       </c>
-      <c r="B38" s="38"/>
+      <c r="B38" s="39"/>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -9546,10 +9560,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="37">
+      <c r="A45" s="38">
         <v>43862</v>
       </c>
-      <c r="B45" s="38"/>
+      <c r="B45" s="39"/>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -9576,10 +9590,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="37">
+      <c r="A49" s="38">
         <v>43891</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="39"/>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -9654,10 +9668,10 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A59" s="37">
+      <c r="A59" s="38">
         <v>43922</v>
       </c>
-      <c r="B59" s="38"/>
+      <c r="B59" s="39"/>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="2">
@@ -9700,10 +9714,10 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A65" s="37">
+      <c r="A65" s="38">
         <v>43952</v>
       </c>
-      <c r="B65" s="38"/>
+      <c r="B65" s="39"/>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="4" t="s">

--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonkuruzovich/githubdesktop/0_class/impactful_innovators_website/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CD535A-0528-6144-B303-E109F03DE634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FE4A4E-9DF0-2C48-AFDA-64CD3C0E7350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="166">
   <si>
     <t>Day</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/W7shyjOOnX</t>
+  </si>
+  <si>
+    <t>https://www.screencast.com/t/TGwTUAwu</t>
   </si>
 </sst>
 </file>
@@ -1197,11 +1200,11 @@
   <dimension ref="A1:K783"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B23" sqref="B23"/>
       <selection pane="topRight" activeCell="B23" sqref="B23"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -5818,7 +5821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -6011,8 +6014,18 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" s="11"/>
@@ -6243,9 +6256,10 @@
     <hyperlink ref="C11" r:id="rId5" xr:uid="{2DC98117-8157-B140-92EC-6D1C44C281C6}"/>
     <hyperlink ref="C12" r:id="rId6" xr:uid="{2824036B-8CC1-FD40-94D1-D95C6A5E5083}"/>
     <hyperlink ref="C13" r:id="rId7" xr:uid="{E85224FD-5E02-B84D-9024-2422322E3C6B}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{73488BF7-8AA8-9D47-9F24-2A8AFA5CC42D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
